--- a/10/2/Tasa de Política Monetaria 2009 a 2021 - Mensual.xlsx
+++ b/10/2/Tasa de Política Monetaria 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Serie</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3930,6 +3933,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144">
+        <v>2.25</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>3.5</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <v>4.25</v>
+      </c>
+      <c r="G144">
+        <v>4.5</v>
+      </c>
+      <c r="H144">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
